--- a/RESULTS/Section 4.2/mean_distances_summary_EN.xlsx
+++ b/RESULTS/Section 4.2/mean_distances_summary_EN.xlsx
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03712714092693251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -521,7 +521,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.497240177592973e-73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -548,7 +548,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>1.829082960245723e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -575,7 +575,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>2.599377051367071e-22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -599,10 +599,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07736468256005961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0004799498307851286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>9.575067273590017e-33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -683,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>1.670953769019106e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -710,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0.007407974489909044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -737,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02026843249906441</v>
+        <v>5.050798564436851e-256</v>
       </c>
     </row>
     <row r="12">
@@ -764,7 +764,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04451844249701336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>1.24658642797083e-57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>1.923018744389896e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -845,7 +845,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>3.553422455953757e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -869,10 +869,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1466368419116912</v>
+        <v>1.982436403432171e-284</v>
       </c>
     </row>
     <row r="17">
@@ -899,7 +899,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0.02372244371113589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>1.808273911714974e-75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -953,7 +953,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>2.285656006738941e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -980,7 +980,7 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>1.752970942735266e-21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1007,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04040538118486729</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
